--- a/汽柴煤油2.0/eta/EG-SC拟合残差_SC_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/EG-SC拟合残差_SC_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-289.8</v>
+        <v>-130.4</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-286.5</v>
+        <v>-284.9</v>
       </c>
       <c r="C3" t="n">
-        <v>-227.3</v>
+        <v>-198.4</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>-95.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-76.40000000000001</v>
+        <v>-83.59999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>39.5</v>
       </c>
       <c r="C5" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="6">
@@ -575,7 +575,7 @@
         <v>221.3</v>
       </c>
       <c r="C11" t="n">
-        <v>221.3</v>
+        <v>221.2</v>
       </c>
     </row>
     <row r="12">
@@ -588,7 +588,7 @@
         <v>279.3</v>
       </c>
       <c r="C12" t="n">
-        <v>278.6</v>
+        <v>278.7</v>
       </c>
     </row>
     <row r="13">
@@ -601,7 +601,7 @@
         <v>307.3</v>
       </c>
       <c r="C13" t="n">
-        <v>307.1</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14">
